--- a/GL190_Script_ReversalCriteriaSetsandAutoReversal_21B.xlsx
+++ b/GL190_Script_ReversalCriteriaSetsandAutoReversal_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9121D7-B8AF-4497-8689-D2001D0815C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A812FD7-96CA-4204-9DD9-3CD0D08C940A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReversalCriteria!$A$1:$N$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReversalCriteria!$G$1:$G$111</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="390">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -423,6 +423,12 @@
     <t>Navigator</t>
   </si>
   <si>
+    <t>Click on Navigator</t>
+  </si>
+  <si>
+    <t>Clicked on Navigator</t>
+  </si>
+  <si>
     <t>Explicit wait for MenuNavigator</t>
   </si>
   <si>
@@ -612,12 +618,24 @@
     <t>ScheduledProcessesLink</t>
   </si>
   <si>
+    <t>Clicked on ScheduledProcessesLink</t>
+  </si>
+  <si>
+    <t>Click on ScheduledProcessesLink</t>
+  </si>
+  <si>
+    <t>Explicit wait for ScheduledProcessesLink</t>
+  </si>
+  <si>
     <t>//a/span[text()='Schedule New Process']</t>
   </si>
   <si>
     <t>ScheduleNewProcess</t>
   </si>
   <si>
+    <t>Explicit wait for ScheduleNewProcess</t>
+  </si>
+  <si>
     <t>//td[1]/span/span[text()='AutoReverse Journals']</t>
   </si>
   <si>
@@ -627,6 +645,18 @@
     <t>CheckStatus</t>
   </si>
   <si>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>Verified Status</t>
+  </si>
+  <si>
+    <t>Verify Status</t>
+  </si>
+  <si>
+    <t>Succeeded</t>
+  </si>
+  <si>
     <t>Explicit wait for UsernameClick</t>
   </si>
   <si>
@@ -720,6 +750,15 @@
     <t>Refresh</t>
   </si>
   <si>
+    <t>Explicit wait for Refresh</t>
+  </si>
+  <si>
+    <t>Click on Refresh</t>
+  </si>
+  <si>
+    <t>Clicked on Refresh</t>
+  </si>
+  <si>
     <t>Step 53</t>
   </si>
   <si>
@@ -858,6 +897,27 @@
     <t>Step 76</t>
   </si>
   <si>
+    <t>Step 77</t>
+  </si>
+  <si>
+    <t>Step 78</t>
+  </si>
+  <si>
+    <t>Step 79</t>
+  </si>
+  <si>
+    <t>Step 80</t>
+  </si>
+  <si>
+    <t>Step 81</t>
+  </si>
+  <si>
+    <t>Step 82</t>
+  </si>
+  <si>
+    <t>Step 83</t>
+  </si>
+  <si>
     <t>URL</t>
   </si>
   <si>
@@ -891,6 +951,45 @@
     <t>//*[@id="groupNode_tools"]</t>
   </si>
   <si>
+    <t>Step 84</t>
+  </si>
+  <si>
+    <t>Step 85</t>
+  </si>
+  <si>
+    <t>Step 86</t>
+  </si>
+  <si>
+    <t>Step 87</t>
+  </si>
+  <si>
+    <t>Step 88</t>
+  </si>
+  <si>
+    <t>Step 89</t>
+  </si>
+  <si>
+    <t>Step 90</t>
+  </si>
+  <si>
+    <t>Step 91</t>
+  </si>
+  <si>
+    <t>Step 92</t>
+  </si>
+  <si>
+    <t>Step 93</t>
+  </si>
+  <si>
+    <t>Step 94</t>
+  </si>
+  <si>
+    <t>Step 95</t>
+  </si>
+  <si>
+    <t>Step 96</t>
+  </si>
+  <si>
     <t>Explicit wait for GeneralAcctDashPage</t>
   </si>
   <si>
@@ -934,24 +1033,60 @@
   </si>
   <si>
     <t>Step 52</t>
+  </si>
+  <si>
+    <t>Step 97</t>
+  </si>
+  <si>
+    <t>Step 98</t>
+  </si>
+  <si>
+    <t>Step 99</t>
+  </si>
+  <si>
+    <t>Step 100</t>
   </si>
   <si>
     <t xml:space="preserve">Yes
 </t>
   </si>
   <si>
+    <t>Scheduled Processes Page</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>Click on Expand Search</t>
+  </si>
+  <si>
+    <t>Clicked on Expand Search</t>
+  </si>
+  <si>
     <t>ExpandSearch</t>
   </si>
   <si>
+    <t>Explicit wait for Process ID</t>
+  </si>
+  <si>
     <t>ProcessIDtxtAct</t>
   </si>
   <si>
+    <t>Set Process ID</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
     <t>ProcessIDAct</t>
   </si>
   <si>
+    <t>Click on Search button</t>
+  </si>
+  <si>
+    <t>Clicked on Search button</t>
+  </si>
+  <si>
     <t>//input[contains(@id,'value10')]</t>
   </si>
   <si>
@@ -991,6 +1126,12 @@
     <t>MediumWait</t>
   </si>
   <si>
+    <t>HighWait</t>
+  </si>
+  <si>
+    <t>HighestWait</t>
+  </si>
+  <si>
     <t>//*[contains(@id,'Region1:1:ap1:AT1:_ATp:table1:0:soc2::content')]</t>
   </si>
   <si>
@@ -1009,13 +1150,52 @@
     <t>Click on Arrow</t>
   </si>
   <si>
-    <t>Logout Page</t>
+    <t>NavigatorIcon</t>
+  </si>
+  <si>
+    <t>ToolsIcon</t>
+  </si>
+  <si>
+    <t>ScheduledProcessesLinkIcon</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_UISmmLink::icon')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,':nvgpgl2_groupNode_tools')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_scheduled_processes_fuse_plus::icon')]</t>
+  </si>
+  <si>
+    <t>GLIcon</t>
+  </si>
+  <si>
+    <t>JournalsLinkGL</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'general_accounting_journals::icon')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_groupNode_general_accounting')]</t>
+  </si>
+  <si>
+    <t>WaitForDuration</t>
   </si>
   <si>
     <t>Common</t>
   </si>
   <si>
-    <t>WaitForDuration</t>
+    <t>SearchButton</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,':srRssdfl::search')]</t>
+  </si>
+  <si>
+    <t>ValidateCheckStatus</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'j_id__ctru160pc4')]</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1389,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1476,7 +1655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9445,7 +9624,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -9459,13 +9638,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -17298,7 +17474,487 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="168">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18843,32 +19499,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.90625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.36328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.90625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.36328125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.6328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.6328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="9.1796875" style="2" collapsed="1"/>
+    <col min="1" max="1" width="30.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="13" customFormat="1" ht="19" customHeight="1">
+    <row r="1" spans="1:14" ht="19" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -18896,7 +19551,7 @@
       <c r="I1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="13" t="s">
@@ -18908,12 +19563,11 @@
       <c r="M1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="O1" s="15"/>
+      <c r="N1" s="14" t="s">
+        <v>360</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
@@ -18939,15 +19593,14 @@
         <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="K2" s="6"/>
       <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
@@ -18977,11 +19630,10 @@
       </c>
       <c r="K3" s="6"/>
       <c r="M3" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O3" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
@@ -19011,11 +19663,10 @@
       </c>
       <c r="K4" s="6"/>
       <c r="M4" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O4" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:14">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -19045,14 +19696,10 @@
       </c>
       <c r="K5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O5" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="2" t="s">
-        <v>81</v>
-      </c>
+    <row r="6" spans="1:14">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -19078,18 +19725,15 @@
         <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="K6" s="2"/>
+      <c r="L6"/>
       <c r="M6" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O6" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="2" t="s">
-        <v>81</v>
-      </c>
+    <row r="7" spans="1:14">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -19111,12 +19755,12 @@
       <c r="H7" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O7" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>81</v>
       </c>
@@ -19145,15 +19789,15 @@
         <v>42</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="K8" s="2"/>
+      <c r="L8"/>
       <c r="M8" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O8" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>81</v>
       </c>
@@ -19178,12 +19822,12 @@
       <c r="H9" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O9" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>81</v>
       </c>
@@ -19212,15 +19856,15 @@
         <v>42</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="K10" s="2"/>
+      <c r="L10"/>
       <c r="M10" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O10" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
@@ -19245,12 +19889,12 @@
       <c r="H11" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="L11" s="4"/>
       <c r="M11" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O11" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" s="10" customFormat="1">
+    <row r="12" spans="1:14" s="10" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>81</v>
       </c>
@@ -19261,7 +19905,7 @@
         <v>75</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>36</v>
@@ -19273,22 +19917,21 @@
         <v>37</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="N12" s="8"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" s="10" customFormat="1">
+    <row r="13" spans="1:14" s="10" customFormat="1">
       <c r="A13" s="2" t="s">
         <v>81</v>
       </c>
@@ -19299,10 +19942,10 @@
         <v>76</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>23</v>
@@ -19311,32 +19954,31 @@
         <v>20</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="2"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="N13" s="8"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" s="10" customFormat="1">
+    <row r="14" spans="1:14" s="10" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>23</v>
@@ -19345,36 +19987,35 @@
         <v>37</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="N14" s="8"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" s="10" customFormat="1">
+    <row r="15" spans="1:14" s="10" customFormat="1">
       <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>23</v>
@@ -19383,23 +20024,22 @@
         <v>20</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="2"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="N15" s="8"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" s="7" customFormat="1">
+    <row r="16" spans="1:14" s="7" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>78</v>
@@ -19410,41 +20050,40 @@
       <c r="E16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>329</v>
+      <c r="F16" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="11"/>
       <c r="M16" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>23</v>
@@ -19453,35 +20092,34 @@
         <v>37</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="K17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O17" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>23</v>
@@ -19490,32 +20128,31 @@
         <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O18" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" s="10" customFormat="1">
+    <row r="19" spans="1:13" s="10" customFormat="1">
       <c r="A19" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>23</v>
@@ -19524,7 +20161,7 @@
         <v>41</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>42</v>
@@ -19535,25 +20172,24 @@
       <c r="K19" s="6"/>
       <c r="L19" s="8"/>
       <c r="M19" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="N19" s="8"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" s="10" customFormat="1">
+    <row r="20" spans="1:13" s="10" customFormat="1">
       <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>23</v>
@@ -19568,30 +20204,29 @@
         <v>42</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="N20" s="8"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" s="10" customFormat="1">
+    <row r="21" spans="1:13" s="10" customFormat="1">
       <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>23</v>
@@ -19607,25 +20242,24 @@
       <c r="K21" s="9"/>
       <c r="L21" s="8"/>
       <c r="M21" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="N21" s="8"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" s="10" customFormat="1">
+    <row r="22" spans="1:13" s="10" customFormat="1">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>23</v>
@@ -19634,36 +20268,35 @@
         <v>37</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="N22" s="8"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="23" spans="1:15" s="10" customFormat="1">
+    <row r="23" spans="1:13" s="10" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>23</v>
@@ -19672,18 +20305,17 @@
         <v>20</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="2"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="N23" s="8"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
@@ -19712,15 +20344,15 @@
         <v>42</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="K24" s="2"/>
+      <c r="L24"/>
       <c r="M24" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O24" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
         <v>81</v>
       </c>
@@ -19745,12 +20377,12 @@
       <c r="H25" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O25" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
@@ -19779,15 +20411,15 @@
         <v>42</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="K26" s="2"/>
+      <c r="L26"/>
       <c r="M26" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O26" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
         <v>81</v>
       </c>
@@ -19812,12 +20444,12 @@
       <c r="H27" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="L27" s="4"/>
       <c r="M27" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O27" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
@@ -19849,12 +20481,12 @@
         <v>22</v>
       </c>
       <c r="K28" s="6"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O28" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -19886,12 +20518,12 @@
         <v>50</v>
       </c>
       <c r="K29" s="6"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O29" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
         <v>81</v>
       </c>
@@ -19920,15 +20552,15 @@
         <v>42</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="K30" s="2"/>
+      <c r="L30"/>
       <c r="M30" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O30" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -19936,7 +20568,7 @@
         <v>106</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>109</v>
@@ -19953,12 +20585,12 @@
       <c r="H31" s="5" t="s">
         <v>102</v>
       </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O31" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
@@ -19966,33 +20598,34 @@
         <v>106</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>329</v>
-      </c>
+      <c r="F32" t="s">
+        <v>385</v>
+      </c>
+      <c r="G32" t="s">
+        <v>384</v>
+      </c>
+      <c r="H32"/>
       <c r="I32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="K32" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="K32"/>
+      <c r="L32"/>
       <c r="M32" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O32" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
         <v>81</v>
       </c>
@@ -20000,33 +20633,34 @@
         <v>106</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>329</v>
-      </c>
+      <c r="F33" t="s">
+        <v>385</v>
+      </c>
+      <c r="G33" t="s">
+        <v>384</v>
+      </c>
+      <c r="H33"/>
       <c r="I33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="K33" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33"/>
       <c r="M33" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O33" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
         <v>81</v>
       </c>
@@ -20034,7 +20668,7 @@
         <v>106</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>111</v>
@@ -20055,15 +20689,15 @@
         <v>42</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="K34" s="2"/>
+      <c r="L34"/>
       <c r="M34" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O34" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
         <v>81</v>
       </c>
@@ -20071,7 +20705,7 @@
         <v>106</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>128</v>
@@ -20088,12 +20722,12 @@
       <c r="H35" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O35" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
@@ -20101,7 +20735,7 @@
         <v>106</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>100</v>
@@ -20112,7 +20746,7 @@
       <c r="F36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" t="s">
         <v>98</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -20125,12 +20759,12 @@
         <v>97</v>
       </c>
       <c r="K36" s="6"/>
+      <c r="L36" s="4"/>
       <c r="M36" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O36" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
         <v>81</v>
       </c>
@@ -20138,33 +20772,34 @@
         <v>106</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" t="s">
         <v>105</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>329</v>
-      </c>
+      <c r="F37" t="s">
+        <v>385</v>
+      </c>
+      <c r="G37" t="s">
+        <v>384</v>
+      </c>
+      <c r="H37"/>
       <c r="I37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="K37" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37"/>
       <c r="M37" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O37" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
@@ -20172,7 +20807,7 @@
         <v>106</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>123</v>
@@ -20193,15 +20828,15 @@
         <v>42</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="K38" s="2"/>
+      <c r="L38"/>
       <c r="M38" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O38" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
         <v>81</v>
       </c>
@@ -20209,7 +20844,7 @@
         <v>106</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>128</v>
@@ -20226,12 +20861,12 @@
       <c r="H39" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O39" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
@@ -20239,7 +20874,7 @@
         <v>106</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>124</v>
@@ -20250,7 +20885,7 @@
       <c r="F40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" t="s">
         <v>98</v>
       </c>
       <c r="H40" s="2" t="s">
@@ -20263,12 +20898,12 @@
         <v>122</v>
       </c>
       <c r="K40" s="6"/>
+      <c r="L40" s="4"/>
       <c r="M40" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O40" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
@@ -20276,7 +20911,7 @@
         <v>106</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>127</v>
@@ -20297,15 +20932,15 @@
         <v>42</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="K41" s="2"/>
+      <c r="L41"/>
       <c r="M41" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O41" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
@@ -20313,7 +20948,7 @@
         <v>106</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>128</v>
@@ -20330,12 +20965,12 @@
       <c r="H42" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O42" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
         <v>81</v>
       </c>
@@ -20343,13 +20978,13 @@
         <v>106</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>23</v>
@@ -20358,20 +20993,20 @@
         <v>37</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O43" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:13">
       <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
@@ -20379,13 +21014,13 @@
         <v>106</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>23</v>
@@ -20394,22 +21029,22 @@
         <v>20</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>293</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O44" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:13">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>105</v>
@@ -20417,32 +21052,28 @@
       <c r="E45" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>329</v>
+      <c r="F45" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O45" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="2" t="s">
-        <v>81</v>
-      </c>
+    <row r="46" spans="1:13">
       <c r="B46" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>130</v>
@@ -20463,28 +21094,25 @@
         <v>42</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O46" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="2" t="s">
-        <v>81</v>
-      </c>
+    <row r="47" spans="1:13">
       <c r="B47" s="2" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>23</v>
@@ -20500,19 +21128,15 @@
       </c>
       <c r="K47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O47" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="2" t="s">
-        <v>81</v>
-      </c>
+    <row r="48" spans="1:13">
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>105</v>
@@ -20520,38 +21144,37 @@
       <c r="E48" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>329</v>
+      <c r="F48" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O48" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>23</v>
@@ -20560,35 +21183,34 @@
         <v>37</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="K49" s="2"/>
       <c r="M49" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="O49" s="4"/>
+        <v>342</v>
+      </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:13">
       <c r="A50" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>23</v>
@@ -20597,161 +21219,155 @@
         <v>20</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="I50" s="2"/>
       <c r="K50" s="2"/>
       <c r="M50" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="O50" s="4"/>
+        <v>342</v>
+      </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>288</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>23</v>
+        <v>385</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O51" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:13">
       <c r="A52" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="I52" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="M52" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O52" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:13">
       <c r="A53" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>36</v>
+        <v>324</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="K53" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="I53" s="2"/>
       <c r="M53" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O53" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:13">
       <c r="A54" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>23</v>
+        <v>385</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>136</v>
+        <v>384</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O54" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:13">
       <c r="A55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>160</v>
+      <c r="B55" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>36</v>
@@ -20762,35 +21378,35 @@
       <c r="G55" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>139</v>
+      <c r="H55" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="K55" s="2"/>
       <c r="M55" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O55" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:13">
       <c r="A56" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>160</v>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>23</v>
@@ -20798,62 +21414,60 @@
       <c r="G56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>139</v>
+      <c r="H56" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O56" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:13">
       <c r="A57" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="D57" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" t="s">
+        <v>385</v>
+      </c>
+      <c r="G57" t="s">
+        <v>384</v>
+      </c>
+      <c r="H57"/>
       <c r="I57" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="K57"/>
+      <c r="L57"/>
       <c r="M57" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O57" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:13">
       <c r="A58" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>161</v>
+        <v>225</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>36</v>
@@ -20864,36 +21478,34 @@
       <c r="G58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="5" t="s">
-        <v>159</v>
+      <c r="H58" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="K58" s="2"/>
+        <v>361</v>
+      </c>
       <c r="M58" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O58" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:13">
       <c r="A59" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>163</v>
+        <v>226</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>23</v>
@@ -20901,26 +21513,25 @@
       <c r="G59" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="5" t="s">
-        <v>159</v>
+      <c r="H59" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O59" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:13">
       <c r="A60" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>166</v>
+        <v>227</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>36</v>
@@ -20931,242 +21542,242 @@
       <c r="G60" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H60" s="5" t="s">
-        <v>165</v>
+      <c r="H60" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="K60" s="2"/>
+        <v>361</v>
+      </c>
       <c r="M60" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O60" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:13">
       <c r="A61" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>228</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I61" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="K61" s="2"/>
+      <c r="L61"/>
       <c r="M61" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O61" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:13">
       <c r="A62" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>169</v>
+        <v>229</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K62" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L62" s="4"/>
       <c r="M62" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O62" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:13">
       <c r="A63" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>230</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>329</v>
+        <v>36</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="K63" s="2"/>
+      <c r="L63"/>
       <c r="M63" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O63" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:13">
       <c r="A64" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D64" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>165</v>
-      </c>
+      <c r="H64" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64"/>
       <c r="M64" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O64" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:13">
       <c r="A65" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>226</v>
+        <v>286</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I65" s="2" t="s">
+      <c r="G65" t="s">
+        <v>98</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>42</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="K65" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="K65" s="6"/>
+      <c r="L65" s="4"/>
       <c r="M65" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O65" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="66" spans="1:15" customFormat="1">
+    <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I66" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="D66" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" t="s">
+        <v>385</v>
+      </c>
+      <c r="G66" t="s">
+        <v>384</v>
+      </c>
+      <c r="H66"/>
+      <c r="I66" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="J66" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
+        <v>365</v>
+      </c>
+      <c r="K66"/>
+      <c r="L66"/>
       <c r="M66" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:13">
       <c r="A67" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>23</v>
@@ -21175,161 +21786,162 @@
         <v>20</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="L67" s="4"/>
       <c r="M67" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O67" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:13">
       <c r="A68" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>234</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>329</v>
+        <v>36</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>319</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="K68" s="2"/>
+      <c r="L68"/>
       <c r="M68" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O68" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:13" customFormat="1">
       <c r="A69" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>227</v>
+        <v>356</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F69" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="G69" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O69" s="4"/>
+        <v>350</v>
+      </c>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:13">
+      <c r="A70" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="B70" s="5" t="s">
-        <v>327</v>
+        <v>162</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>36</v>
+        <v>237</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L70" s="4"/>
+      <c r="M70" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O70" s="4"/>
+      <c r="J71" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>340</v>
+      </c>
     </row>
-    <row r="71" spans="1:15">
-      <c r="B71" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K71" s="2"/>
-      <c r="M71" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O71" s="4"/>
-    </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:13">
+      <c r="A72" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="B72" s="5" t="s">
-        <v>327</v>
+        <v>162</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>202</v>
+        <v>287</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>23</v>
@@ -21337,33 +21949,35 @@
       <c r="G72" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>146</v>
+      <c r="H72" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="K72" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O72" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:13">
+      <c r="A73" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="B73" s="5" t="s">
-        <v>327</v>
+        <v>162</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>23</v>
@@ -21371,67 +21985,65 @@
       <c r="G73" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>146</v>
+      <c r="H73" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K73" s="2"/>
       <c r="M73" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="O73" s="4"/>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="B74" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="D74" s="2" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>23</v>
+        <v>385</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>148</v>
+        <v>384</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="K74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O74" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:13">
+      <c r="A75" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="B75" s="5" t="s">
-        <v>327</v>
+        <v>162</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>208</v>
+        <v>282</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>23</v>
@@ -21439,33 +22051,35 @@
       <c r="G75" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>150</v>
+      <c r="H75" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="K75" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="L75" s="4"/>
       <c r="M75" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O75" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:13">
+      <c r="A76" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="B76" s="5" t="s">
-        <v>327</v>
+        <v>162</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>23</v>
@@ -21473,254 +22087,1160 @@
       <c r="G76" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K76" s="2"/>
+      <c r="H76" s="5" t="s">
+        <v>375</v>
+      </c>
       <c r="M76" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O76" s="4"/>
+        <v>340</v>
+      </c>
     </row>
-    <row r="77" spans="1:15">
-      <c r="B77" s="5" t="s">
-        <v>327</v>
+    <row r="77" spans="1:13">
+      <c r="A77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>21</v>
+        <v>361</v>
       </c>
       <c r="K77" s="2"/>
       <c r="M77" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="M79" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K80" s="2"/>
+      <c r="M80" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82" t="s">
+        <v>105</v>
+      </c>
+      <c r="F82" t="s">
+        <v>385</v>
+      </c>
+      <c r="G82" t="s">
+        <v>384</v>
+      </c>
+      <c r="H82"/>
+      <c r="I82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D87" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" t="s">
+        <v>105</v>
+      </c>
+      <c r="F87" t="s">
+        <v>385</v>
+      </c>
+      <c r="G87" t="s">
+        <v>384</v>
+      </c>
+      <c r="H87"/>
+      <c r="I87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I88"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D89" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" t="s">
+        <v>105</v>
+      </c>
+      <c r="F89" t="s">
+        <v>385</v>
+      </c>
+      <c r="G89" t="s">
+        <v>384</v>
+      </c>
+      <c r="H89"/>
+      <c r="I89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I90"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D91" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" t="s">
+        <v>105</v>
+      </c>
+      <c r="F91" t="s">
+        <v>385</v>
+      </c>
+      <c r="G91" t="s">
+        <v>384</v>
+      </c>
+      <c r="H91"/>
+      <c r="I91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D93" t="s">
+        <v>105</v>
+      </c>
+      <c r="E93" t="s">
+        <v>105</v>
+      </c>
+      <c r="F93" t="s">
+        <v>385</v>
+      </c>
+      <c r="G93" t="s">
+        <v>384</v>
+      </c>
+      <c r="H93"/>
+      <c r="I93" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="B94" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="B95" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O77" s="4"/>
+      <c r="J95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K95" s="2"/>
+      <c r="M95" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="B96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K96" s="2"/>
+      <c r="M96" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13">
+      <c r="B97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" s="2"/>
+      <c r="M97" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13">
+      <c r="B98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K98" s="2"/>
+      <c r="M98" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13">
+      <c r="B99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K99" s="2"/>
+      <c r="M99" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13">
+      <c r="B100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K100" s="2"/>
+      <c r="M100" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13">
+      <c r="B101" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K101" s="2"/>
+      <c r="M101" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="119" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="duplicateValues" dxfId="118" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="117" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="116" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="115" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="114" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="113" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="duplicateValues" dxfId="112" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="duplicateValues" dxfId="111" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="duplicateValues" dxfId="110" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="109" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="108" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="106" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="duplicateValues" dxfId="105" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="104" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="duplicateValues" dxfId="103" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="duplicateValues" dxfId="102" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="duplicateValues" dxfId="101" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="duplicateValues" dxfId="100" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="99" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="duplicateValues" dxfId="98" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="duplicateValues" dxfId="97" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="96" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="duplicateValues" dxfId="95" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="duplicateValues" dxfId="142" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="duplicateValues" dxfId="141" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="duplicateValues" dxfId="140" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="duplicateValues" dxfId="139" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J61">
+    <cfRule type="duplicateValues" dxfId="138" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="duplicateValues" dxfId="137" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63:J64">
+    <cfRule type="duplicateValues" dxfId="136" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="duplicateValues" dxfId="135" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="duplicateValues" dxfId="134" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="duplicateValues" dxfId="133" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71">
+    <cfRule type="duplicateValues" dxfId="132" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J77">
+    <cfRule type="duplicateValues" dxfId="131" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="duplicateValues" dxfId="130" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79">
+    <cfRule type="duplicateValues" dxfId="129" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="duplicateValues" dxfId="128" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J94">
+    <cfRule type="duplicateValues" dxfId="127" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="duplicateValues" dxfId="126" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="duplicateValues" dxfId="125" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="duplicateValues" dxfId="124" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J80">
+    <cfRule type="duplicateValues" dxfId="123" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82">
+    <cfRule type="duplicateValues" dxfId="122" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="duplicateValues" dxfId="121" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="duplicateValues" dxfId="120" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="duplicateValues" dxfId="119" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="duplicateValues" dxfId="118" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="duplicateValues" dxfId="117" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="duplicateValues" dxfId="116" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="duplicateValues" dxfId="115" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="duplicateValues" dxfId="114" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="duplicateValues" dxfId="113" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74">
+    <cfRule type="duplicateValues" dxfId="112" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="duplicateValues" dxfId="111" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="duplicateValues" dxfId="110" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="duplicateValues" dxfId="109" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:H53">
+    <cfRule type="duplicateValues" dxfId="108" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:J53">
+    <cfRule type="duplicateValues" dxfId="107" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="duplicateValues" dxfId="106" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="duplicateValues" dxfId="105" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="duplicateValues" dxfId="104" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72">
+    <cfRule type="duplicateValues" dxfId="103" priority="293"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="duplicateValues" dxfId="102" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J87:J88">
+    <cfRule type="duplicateValues" dxfId="101" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="duplicateValues" dxfId="100" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84">
+    <cfRule type="duplicateValues" dxfId="99" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="duplicateValues" dxfId="98" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="duplicateValues" dxfId="97" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="duplicateValues" dxfId="96" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J91">
+    <cfRule type="duplicateValues" dxfId="95" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91">
+    <cfRule type="duplicateValues" dxfId="94" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89:J90">
+    <cfRule type="duplicateValues" dxfId="93" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="duplicateValues" dxfId="92" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="duplicateValues" dxfId="91" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="duplicateValues" dxfId="90" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="duplicateValues" dxfId="89" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="duplicateValues" dxfId="88" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="duplicateValues" dxfId="87" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="duplicateValues" dxfId="86" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="duplicateValues" dxfId="84" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="duplicateValues" dxfId="83" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="duplicateValues" dxfId="81" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="duplicateValues" dxfId="80" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J93">
+    <cfRule type="duplicateValues" dxfId="79" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H93">
+    <cfRule type="duplicateValues" dxfId="78" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="duplicateValues" dxfId="77" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="duplicateValues" dxfId="76" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="duplicateValues" dxfId="74" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="duplicateValues" dxfId="73" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="duplicateValues" dxfId="71" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="duplicateValues" dxfId="70" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="duplicateValues" dxfId="69" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="duplicateValues" dxfId="68" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="94" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
-    <cfRule type="duplicateValues" dxfId="93" priority="85"/>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="duplicateValues" dxfId="66" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="duplicateValues" dxfId="92" priority="83"/>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="duplicateValues" dxfId="64" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="duplicateValues" dxfId="91" priority="80"/>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="duplicateValues" dxfId="63" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
-    <cfRule type="duplicateValues" dxfId="90" priority="81"/>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="duplicateValues" dxfId="89" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60:J61">
-    <cfRule type="duplicateValues" dxfId="88" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="duplicateValues" dxfId="87" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="86" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="85" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
-    <cfRule type="duplicateValues" dxfId="84" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="83" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="duplicateValues" dxfId="82" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="duplicateValues" dxfId="81" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65">
-    <cfRule type="duplicateValues" dxfId="80" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="79" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="78" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="77" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="duplicateValues" dxfId="76" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="75" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="74" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="73" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="72" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="71" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="duplicateValues" dxfId="70" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:H52">
-    <cfRule type="duplicateValues" dxfId="69" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51:J52">
-    <cfRule type="duplicateValues" dxfId="68" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="67" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="duplicateValues" dxfId="66" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="duplicateValues" dxfId="65" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="duplicateValues" dxfId="64" priority="265"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="duplicateValues" dxfId="63" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="62" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="duplicateValues" dxfId="61" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="duplicateValues" dxfId="60" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="duplicateValues" dxfId="59" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="duplicateValues" dxfId="58" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="57" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="56" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="3"/>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I19 I2:I3 I49" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" sqref="I19 I2:I3 I85 I49" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21732,32 +23252,32 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="86" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="58.453125" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.1796875" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="14" customFormat="1" ht="18.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -21797,7 +23317,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -21805,13 +23325,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -21819,13 +23339,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -21833,13 +23353,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -21847,13 +23367,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
@@ -21875,13 +23395,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
@@ -21889,13 +23409,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
@@ -21903,13 +23423,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
@@ -21931,13 +23451,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
@@ -21945,13 +23465,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
@@ -21959,13 +23479,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
@@ -21987,13 +23507,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>23</v>
@@ -22001,13 +23521,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>23</v>
@@ -22035,7 +23555,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>23</v>
@@ -22049,7 +23569,7 @@
         <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>23</v>
@@ -22071,13 +23591,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>23</v>
@@ -22085,13 +23605,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>23</v>
@@ -22099,13 +23619,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>23</v>
@@ -22113,13 +23633,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>23</v>
@@ -22155,13 +23675,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>23</v>
@@ -22169,13 +23689,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>23</v>
@@ -22217,7 +23737,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>23</v>
@@ -22225,13 +23745,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>23</v>
@@ -22239,13 +23759,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="5" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>23</v>
@@ -22253,13 +23773,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>23</v>
@@ -22273,7 +23793,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>23</v>
@@ -22281,13 +23801,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>23</v>
@@ -22295,13 +23815,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>23</v>
@@ -22337,13 +23857,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>23</v>
@@ -22351,13 +23871,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>23</v>
@@ -22365,13 +23885,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>23</v>
@@ -22379,13 +23899,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>23</v>
@@ -22393,13 +23913,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>23</v>
@@ -22427,7 +23947,7 @@
         <v>35</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>23</v>
@@ -22435,13 +23955,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>23</v>
@@ -22455,7 +23975,7 @@
         <v>35</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>23</v>
@@ -22463,13 +23983,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>23</v>
@@ -22477,13 +23997,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>23</v>
@@ -22491,15 +24011,113 @@
     </row>
     <row r="54" spans="1:4" s="12" customFormat="1">
       <c r="A54" s="5" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="12" customFormat="1">
+      <c r="A56" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="12" customFormat="1">
+      <c r="A57" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="12" customFormat="1">
+      <c r="A58" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="12" customFormat="1">
+      <c r="A61" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -22507,125 +24125,145 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D5">
     <sortCondition ref="D2:D5"/>
   </sortState>
-  <conditionalFormatting sqref="A47 A30:A37 A1:A5 A7:A19 A49 A55:A1048576">
-    <cfRule type="duplicateValues" dxfId="51" priority="184"/>
+  <conditionalFormatting sqref="A47 A30:A37 A1:A5 A7:A19 A49 A55 A59 A62 A65:A1048576">
+    <cfRule type="duplicateValues" dxfId="59" priority="192"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47 A30:A37 A1:A5 A7:A19 A49 A55:A1048576">
-    <cfRule type="duplicateValues" dxfId="50" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="188"/>
+  <conditionalFormatting sqref="A47 A30:A37 A1:A5 A7:A19 A49 A55 A59 A62 A65:A1048576">
+    <cfRule type="duplicateValues" dxfId="58" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="48" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="47" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="45" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="44" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A29">
-    <cfRule type="duplicateValues" dxfId="42" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A29">
-    <cfRule type="duplicateValues" dxfId="41" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A23">
-    <cfRule type="duplicateValues" dxfId="39" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A23">
-    <cfRule type="duplicateValues" dxfId="38" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="36" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="33" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="30" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A49 A55:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  <conditionalFormatting sqref="A1:A49 A55 A59 A62 A65:A1048576">
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
+  <conditionalFormatting sqref="A61">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
